--- a/TSCA2019/tables_manually_reviewed/TSCA2019_culture_folders_to_review_2023-03-02_afc.xlsx
+++ b/TSCA2019/tables_manually_reviewed/TSCA2019_culture_folders_to_review_2023-03-02_afc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Lab\NHEERL_MEA\Carpenter_Amy\pre-process_mea_acute_for_tcpl\TSCA2019\tables_manually_reviewed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acarpe01\Documents\local_repos\pre-process_mea_acute_for_tcpl\TSCA2019\tables_manually_reviewed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30B1102-6010-47C2-89ED-C85F642174A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2837559B-3894-4BAC-A1FC-53587930C15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4335" yWindow="-15480" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TSCA cultures" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="116">
   <si>
     <t>culture_folders</t>
   </si>
@@ -173,15 +173,6 @@
     <t>One Note scan</t>
   </si>
   <si>
-    <t>Plate 72-8208 "hit stop began recording while offset was running". Plate 72-8209 "recording had stopped. Thought I had forgot to start it. Started it again then realized mistake. Actual start time was 2:18 pm"</t>
-  </si>
-  <si>
-    <t>Plate 71-7011: "dosing error, added 155uL dosing solution to columns 1-4" [should only be 55uL] / Plate 75-5802: "problems with plate; transferred to new plate 130uL"</t>
-  </si>
-  <si>
-    <t>Will confirm with lab that 71-7011 columns 1-4 are not usable, then set wllq to 0 in table. Will confirm with lab that 75-5802 is still usable</t>
-  </si>
-  <si>
     <t>ask if this is an issue</t>
   </si>
   <si>
@@ -194,9 +185,6 @@
     <t>Theresa</t>
   </si>
   <si>
-    <t>"Performed half media change on DIV 14"; Plate 71-7015 Cell-Titer Blue "reversed plate orientation"</t>
-  </si>
-  <si>
     <t>Plate 75-5820, 40 min treated end time: "forgot to close Maestro door, no CO2 for recording"</t>
   </si>
   <si>
@@ -251,15 +239,6 @@
     <t>diff LDH positive control used P1 vs P2 &amp; P3</t>
   </si>
   <si>
-    <t>Will ask lab if there is a way to combine</t>
-  </si>
-  <si>
-    <t>Ask if there is a way to combine recordings; Do we care about color change? Do we care about sinking to bottom of well?</t>
-  </si>
-  <si>
-    <t>Seline; Tim</t>
-  </si>
-  <si>
     <t>Next to the table recording treatment times: "with shaking"</t>
   </si>
   <si>
@@ -281,9 +260,6 @@
     <t>Will see if plate 72-8209 looks that much different than the other replicates (given the baseline decline, 20-24 min of rest might matter?)</t>
   </si>
   <si>
-    <t>doses in Calculations file currently appear normal as of 3/3/23</t>
-  </si>
-  <si>
     <t>confirm that this means that the doses should be switched in the calculations files, then do that</t>
   </si>
   <si>
@@ -335,9 +311,6 @@
     <t>check for potential interference in LDH or AB for this compound</t>
   </si>
   <si>
-    <t>Plate 75-8213, 40 min treated end time: "recording interrupted Axis shut down / Restarted, recorded for an additional 7 minutes" "G12 is a deep pink. Addition of media did not change coloration. Solution sunk in Columns 5, 6, 7, 8"</t>
-  </si>
-  <si>
     <t>need lab followup org</t>
   </si>
   <si>
@@ -348,6 +321,81 @@
   </si>
   <si>
     <t>Theresa/seline/someone created a spliced version for some endpoints. Will consider if I trust that, and if consistent with other spliced files.</t>
+  </si>
+  <si>
+    <t>Plate 71-7011: "dosing error, added 155uL dosing solution to columns 1-4" [should only be 55uL]
+Plate 75-5802: "problems with plate; transferred to new plate 130uL"</t>
+  </si>
+  <si>
+    <t>Setting wllq to 0 for 71-7011 columns 1-4.
+Will confirm with lab that 75-5802 is still usable</t>
+  </si>
+  <si>
+    <t>Confirm with lab that 75-5802 is still usable despite the note: Plate 75-5802: "problems with plate; transferred to new plate 130uL"</t>
+  </si>
+  <si>
+    <t>"Performed half media change on DIV 14";
+Plate 71-7015 Cell-Titer Blue "reversed plate orientation"</t>
+  </si>
+  <si>
+    <t>Plate 75-8213, 40 min treated end time: "recording interrupted Axis shut down / Restarted, recorded for an additional 7 minutes"
+"G12 is a deep pink. Addition of media did not change coloration. Solution sunk in Columns 5, 6, 7, 8"</t>
+  </si>
+  <si>
+    <t>Looks like someone tried to combine the 2 recordings for some endpoints; I'm going to wait to analyze that until the end</t>
+  </si>
+  <si>
+    <t>check for potential interference in LDH or AB for this compound; view situation re sinking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regarding 40 min Treated Start time: Plate 72-8208 "hit stop began recording while offset was running"
+Regarding 40 min Treated Start time: Plate 72-8209 "recording had stopped. Thought I had forgot to start it. Started it again then realized mistake. Actual start time was 2:18 pm" </t>
+  </si>
+  <si>
+    <t>Regarding Pate 72-8209: (actual start time is only 4 min late. I doubt this is a deal-breaker, but I've made a note to analyze all cases where analysis start or duration is off)</t>
+  </si>
+  <si>
+    <t>Theresa/Seline</t>
+  </si>
+  <si>
+    <t>Seline explained that after hitting start, Axion runs an “offset” as a preliminary calibration step. I guess they usually hit record after this offset has completed. However, the offset only takes about 10 seconds. Therefore, for a 40 minute recording, the effect of including a 10-sec offset should probably not affect the parameter values too much.</t>
+  </si>
+  <si>
+    <t>Compare plate 75-5802 to the other 2 plates for the LDH values to confirm if okay to normalize by experiment date (despite the slighlty lower volume of substrate)</t>
+  </si>
+  <si>
+    <t>Seline confirmed that Plate 71-7011 columns 1-4 should probably be wllq == 0
+For Plate 75-5802, Seline explained that Theresa was probably having issues with the LDH plate itself. There are usually 150uL in the LDH plate, so this replacement plate only had 20uL less.
+Seline said that is probably wouldn’t make too much of a difference. But, if we are comparing the LDH data values in the other 2 plate, its possible that there could be a significant difference. Therefore, I should compare with the other 2 plates before combining.</t>
+  </si>
+  <si>
+    <t>Seline explained that Theresa probably reversed the orientation when she was transferring the liquid from the MEA plate to the CTB plate. Based on the low value in well A8, all of the values in columns 1-8 and rows A-F should be rotated 180 degrees. (i.e., well A8 should be well F1).
+I’m not sure how to do this in excel. Since I need to cross check all raw data files for cyto, I’ll just do it in R. Making a note to execute this update in the run_me now.</t>
+  </si>
+  <si>
+    <t>Seline &amp; I did the math together and confirmed that the top conc should be 30*1.5 = 45uM. We updated the Calculations file to reflect the correct doses. I am also going to make the note that that conc of DMSO is higher here in the wllq notes, and review when I consider impact of % of DMSO.</t>
+  </si>
+  <si>
+    <t>Seline sleuthed the calc files and determined that most likely the 2 full lysis wells were in H1 and H2, and well H3 was mostly likely blank. So we set wllq == 0.
+She also determined that “only have 2 controls” most likely means that only 2 of the 3 usual blank wells were filled. Therefore, wllq for well G3 should be 0. We changed the excel formulate for the corrected optical density to only use wells G1 and G2 (and not G3).
+As for whether the data is still usable overall, Seline said that if Theresa continued with the assay, she probably thought is was still usable… but wouldn’t hurt to check the values.</t>
+  </si>
+  <si>
+    <t>check if plate 75-8114 looks okay despite tipping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plate 1 should be slipped 180 degrees, as was the case for G11. (i.e., well A8 should be well F1). No reorientation has been implemented in the raw or Calculations file.
+Seline confirmed that the raw data files for G20 and G21. She probably just forgot to copy &amp; paste the updated values into the Calculations file. This made her question whether she should go back and manually check every other culture… I said I would do that with R.
+</t>
+  </si>
+  <si>
+    <t>doses in Calculations file currently appear uncorrected as of 3/3/23</t>
+  </si>
+  <si>
+    <t>See email from Theresa 5/9/23. She said that she most likely switched the doses in the MEA plate, which would affect all assays. I have adjusted the concentrations in the Calculations files</t>
+  </si>
+  <si>
+    <t>complete</t>
   </si>
 </sst>
 </file>
@@ -391,10 +439,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -693,9 +744,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -703,7 +754,9 @@
     <col min="1" max="1" width="56" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.109375" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
     <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -720,31 +773,31 @@
         <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -784,7 +837,7 @@
         <v>44987</v>
       </c>
       <c r="E3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -793,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -813,13 +866,13 @@
         <v>44987</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -828,10 +881,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -883,33 +936,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" t="s">
-        <v>45</v>
+      <c r="C7" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="D7" s="2">
         <v>44987</v>
       </c>
+      <c r="E7" t="s">
+        <v>103</v>
+      </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>105</v>
       </c>
       <c r="K7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -938,36 +997,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>44</v>
       </c>
-      <c r="C9" t="s">
-        <v>46</v>
+      <c r="C9" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="D9" s="2">
         <v>44988</v>
       </c>
-      <c r="E9" t="s">
-        <v>47</v>
+      <c r="E9" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" t="s">
+        <v>106</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -1001,60 +1066,69 @@
         <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2">
         <v>44988</v>
       </c>
       <c r="E11" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>44</v>
       </c>
-      <c r="C12" t="s">
-        <v>52</v>
+      <c r="C12" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="D12" s="2">
         <v>44988</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="K12" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -1068,7 +1142,7 @@
         <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D13" s="2">
         <v>44988</v>
@@ -1080,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -1094,7 +1168,7 @@
         <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D14" s="2">
         <v>44988</v>
@@ -1106,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -1143,16 +1217,16 @@
         <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D16" s="2">
         <v>44988</v>
       </c>
       <c r="F16" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1161,10 +1235,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="K16" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -1178,25 +1252,28 @@
         <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D17" s="2">
         <v>44988</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>109</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1248,7 +1325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1256,31 +1333,37 @@
         <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D20" s="2">
         <v>44988</v>
       </c>
       <c r="E20" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K20" t="s">
+        <v>111</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1288,28 +1371,31 @@
         <v>44</v>
       </c>
       <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="2">
+        <v>44988</v>
+      </c>
+      <c r="E21" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="2">
-        <v>44988</v>
-      </c>
-      <c r="E21" t="s">
-        <v>64</v>
-      </c>
       <c r="F21" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G21" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="K21" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -1323,7 +1409,7 @@
         <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D22" s="2">
         <v>44988</v>
@@ -1335,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -1349,16 +1435,16 @@
         <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D23" s="2">
         <v>44988</v>
       </c>
       <c r="F23" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -1367,10 +1453,10 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
+        <v>92</v>
+      </c>
+      <c r="K23" t="s">
         <v>101</v>
-      </c>
-      <c r="K23" t="s">
-        <v>98</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -1384,7 +1470,7 @@
         <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D24" s="2">
         <v>44988</v>
@@ -1396,33 +1482,33 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>44</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D25" s="2">
         <v>44988</v>
       </c>
       <c r="E25" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="F25" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G25" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -1431,10 +1517,10 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="K25" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -1448,7 +1534,7 @@
         <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D26" s="2">
         <v>44988</v>
@@ -1460,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -1612,16 +1698,16 @@
         <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D33" s="2">
         <v>44988</v>
       </c>
       <c r="F33" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G33" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -1630,10 +1716,10 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="K33" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -1716,7 +1802,7 @@
         <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D37" s="2">
         <v>44988</v>
@@ -1728,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L37">
         <v>1</v>

--- a/TSCA2019/tables_manually_reviewed/TSCA2019_culture_folders_to_review_2023-03-02_afc.xlsx
+++ b/TSCA2019/tables_manually_reviewed/TSCA2019_culture_folders_to_review_2023-03-02_afc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acarpe01\Documents\local_repos\pre-process_mea_acute_for_tcpl\TSCA2019\tables_manually_reviewed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2837559B-3894-4BAC-A1FC-53587930C15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52FE5D2-10B7-45AF-8784-1F57FECD9BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4335" yWindow="-15480" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22980" yWindow="-16365" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TSCA cultures" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="116">
   <si>
     <t>culture_folders</t>
   </si>
@@ -257,9 +257,6 @@
     <t>72-8208 - get clarification on impact of recording while offset was running.</t>
   </si>
   <si>
-    <t>Will see if plate 72-8209 looks that much different than the other replicates (given the baseline decline, 20-24 min of rest might matter?)</t>
-  </si>
-  <si>
     <t>confirm that this means that the doses should be switched in the calculations files, then do that</t>
   </si>
   <si>
@@ -312,12 +309,6 @@
   </si>
   <si>
     <t>need lab followup org</t>
-  </si>
-  <si>
-    <t>See convo with Tim 3/7/23 - MEA activity should not be affected, but there could be interference in the LDH or AB. Do follow up analysis). Still need to check up on sinking stuff.</t>
-  </si>
-  <si>
-    <t>See convo with Tim 3/7/23 - MEA activity should not be affected, but there could be interference in the LDH or AB. Do follow up analysis). Still need to check up on sinking stuff, still need to do follow up on combining recording (though that might be analysis)</t>
   </si>
   <si>
     <t>Theresa/seline/someone created a spliced version for some endpoints. Will consider if I trust that, and if consistent with other spliced files.</t>
@@ -348,17 +339,10 @@
     <t>check for potential interference in LDH or AB for this compound; view situation re sinking</t>
   </si>
   <si>
-    <t xml:space="preserve">Regarding 40 min Treated Start time: Plate 72-8208 "hit stop began recording while offset was running"
-Regarding 40 min Treated Start time: Plate 72-8209 "recording had stopped. Thought I had forgot to start it. Started it again then realized mistake. Actual start time was 2:18 pm" </t>
-  </si>
-  <si>
     <t>Regarding Pate 72-8209: (actual start time is only 4 min late. I doubt this is a deal-breaker, but I've made a note to analyze all cases where analysis start or duration is off)</t>
   </si>
   <si>
     <t>Theresa/Seline</t>
-  </si>
-  <si>
-    <t>Seline explained that after hitting start, Axion runs an “offset” as a preliminary calibration step. I guess they usually hit record after this offset has completed. However, the offset only takes about 10 seconds. Therefore, for a 40 minute recording, the effect of including a 10-sec offset should probably not affect the parameter values too much.</t>
   </si>
   <si>
     <t>Compare plate 75-5802 to the other 2 plates for the LDH values to confirm if okay to normalize by experiment date (despite the slighlty lower volume of substrate)</t>
@@ -381,9 +365,6 @@
 As for whether the data is still usable overall, Seline said that if Theresa continued with the assay, she probably thought is was still usable… but wouldn’t hurt to check the values.</t>
   </si>
   <si>
-    <t>check if plate 75-8114 looks okay despite tipping</t>
-  </si>
-  <si>
     <t xml:space="preserve">Plate 1 should be slipped 180 degrees, as was the case for G11. (i.e., well A8 should be well F1). No reorientation has been implemented in the raw or Calculations file.
 Seline confirmed that the raw data files for G20 and G21. She probably just forgot to copy &amp; paste the updated values into the Calculations file. This made her question whether she should go back and manually check every other culture… I said I would do that with R.
 </t>
@@ -396,6 +377,25 @@
   </si>
   <si>
     <t>complete</t>
+  </si>
+  <si>
+    <t>check if plate 75-8114 looks okay despite tipping. Well quality already set to 0 for wells G3 and H3, but check if other wells appear usable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See convo with Tim 3/7/23 - MEA activity should not be affected, but there could be interference in the LDH or AB. Do follow up analysis). Still need to check up on whether we care about solution sinking to bottom of well. </t>
+  </si>
+  <si>
+    <t>See convo with Tim 3/7/23 - MEA activity should not be affected, but there could be interference in the LDH or AB. Do follow up analysis). Still need to check up on whether we care about solution sinking to bottom of well, still need to do follow up on combining recording (though that might be analysis)</t>
+  </si>
+  <si>
+    <t>Regarding Plate 72-8208, Seline explained that after hitting start, Axion runs an “offset” as a preliminary calibration step. I guess they usually hit record after this offset has completed. However, the offset only takes about 10 seconds. Therefore, for a 40 minute recording, the effect of including a 10-sec offset should probably not affect the parameter values too much.</t>
+  </si>
+  <si>
+    <t>Regarding 40 min Treated Start time: Plate 72-8208 "hit stop began recording while offset was running"
+Regarding 40 min Treated Start time: Plate 72-8209 "recording had stopped. Thought I had forgot to start it. Started it again then realized mistake. Actual start time was 2:18 pm" (should have been 2:04 pm, so the recording was started 34 minutes after treatment was added rather than the usual 20 minutes)</t>
+  </si>
+  <si>
+    <t>Will see if plate 72-8209 looks that much different than the other replicates (given the decline in activity over time, an extra 14 mintues of 'rest' after treatment addition might matter?)</t>
   </si>
 </sst>
 </file>
@@ -744,9 +744,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -776,28 +776,28 @@
         <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -837,7 +837,7 @@
         <v>44987</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -869,7 +869,7 @@
         <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s">
         <v>64</v>
@@ -881,10 +881,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" t="s">
         <v>89</v>
-      </c>
-      <c r="K4" t="s">
-        <v>90</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -944,19 +944,19 @@
         <v>44</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D7" s="2">
         <v>44987</v>
       </c>
       <c r="E7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
       </c>
       <c r="G7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="K7" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -1005,19 +1005,19 @@
         <v>44</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D9" s="2">
         <v>44988</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1026,10 +1026,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -1072,10 +1072,10 @@
         <v>44988</v>
       </c>
       <c r="E11" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G11" t="s">
         <v>48</v>
@@ -1087,13 +1087,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="331.2" x14ac:dyDescent="0.3">
@@ -1104,19 +1104,19 @@
         <v>44</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D12" s="2">
         <v>44988</v>
       </c>
       <c r="E12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" t="s">
         <v>76</v>
       </c>
-      <c r="F12" t="s">
-        <v>77</v>
-      </c>
       <c r="G12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1125,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="K12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -1223,7 +1223,7 @@
         <v>44988</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s">
         <v>64</v>
@@ -1235,10 +1235,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" t="s">
         <v>89</v>
-      </c>
-      <c r="K16" t="s">
-        <v>90</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -1258,22 +1258,22 @@
         <v>44988</v>
       </c>
       <c r="E17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" t="s">
         <v>78</v>
       </c>
-      <c r="F17" t="s">
-        <v>79</v>
-      </c>
       <c r="G17" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
         <v>104</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s">
-        <v>109</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>44988</v>
       </c>
       <c r="E20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" t="s">
         <v>80</v>
       </c>
-      <c r="F20" t="s">
-        <v>81</v>
-      </c>
       <c r="G20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K20" t="s">
         <v>110</v>
-      </c>
-      <c r="K20" t="s">
-        <v>111</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -1383,7 +1383,7 @@
         <v>61</v>
       </c>
       <c r="G21" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K21" t="s">
         <v>58</v>
@@ -1453,10 +1453,10 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="K23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -1496,13 +1496,13 @@
         <v>44</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D25" s="2">
         <v>44988</v>
       </c>
       <c r="E25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F25" t="s">
         <v>63</v>
@@ -1517,10 +1517,10 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="K25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -1716,10 +1716,10 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="K33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L33">
         <v>1</v>
